--- a/Test/Lawnmower/T2/Sensors_data_1000039.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000039.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9723350992693294</v>
+        <v>0.9469218999280951</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001066641227506596</v>
+        <v>0.002944238507489576</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0007220582449966595</v>
+        <v>0.05231626134511802</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9787857671973249</v>
+        <v>0.98562449124812</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0006205890754760192</v>
+        <v>0.001054958591963816</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1218746851063676</v>
+        <v>0.02709847785962344</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6108544500331694</v>
+        <v>0.992659661373275</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01960061237716105</v>
+        <v>0.0005510283247497872</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2724094138463856</v>
+        <v>0.1174630339840214</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -550,18 +550,68 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8847142110290618</v>
+        <v>0.9294030590814195</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003728164995430357</v>
+        <v>0.002721918594709522</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4006102919325598</v>
+        <v>0.003539714406784966</v>
       </c>
       <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8977182343479148</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.002992092477465329</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1161740052639976</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7738136004031961</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01139263173858855</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2687259384962844</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
